--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>小组项目实体的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月8日23:11:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java高并发初步了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,14 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -409,6 +422,17 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,38 @@
   </si>
   <si>
     <t>Java高并发初步了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月10日23:42:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月9日17:37:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaEE基础作业的系统整合（还缺乏高并发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java_Annotation的基础练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Group实体类的构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User与Group一对多，Group对Group一对多的关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -433,6 +465,38 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>User与Group一对多，Group对Group一对多的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月11日11:03:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java_Annotation 自定义注解练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,19 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43556</v>
       </c>
@@ -435,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43557</v>
       </c>
@@ -446,17 +463,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -467,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -478,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -489,14 +506,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,11 +97,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10：30--11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java_Annotation 自定义注解练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop Commodity实体类的构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java_Annotation 通过反射获取注解信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30--16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30--23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,10 +540,26 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>22:30--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persistence.xml浅入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,6 +570,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>persistence.xml浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBits浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00--20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:00--00:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,6 +589,17 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,26 @@
   </si>
   <si>
     <t>00:00--00:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月13日15:11:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月12日22:33:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次利用MyBits框架对数据库进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:10--12:10 &amp; 14:20--15:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,6 +603,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -599,6 +622,20 @@
       </c>
       <c r="D14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>11:10--12:10 &amp; 14:20--15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBits利用接口实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00--23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,6 +646,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MyBits浅入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16:00--20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,11 +157,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MyBits利用接口实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23:00--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月14日22:20:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBaits浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBaits利用接口实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis_config浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis_config浅入学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30--13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00--21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +636,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -621,37 +645,59 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,30 @@
   </si>
   <si>
     <t>21:00--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月15日22:54:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base dao service课后练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30--18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,6 +724,28 @@
         <v>42</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,22 @@
   </si>
   <si>
     <t>16:30--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月16日13:09:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00--13:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base dao service课后练习（已整合至My_Sun工程）测试已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="3" max="3" width="60.875" customWidth="1"/>
     <col min="4" max="4" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,6 +762,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>base dao service课后练习（已整合至My_Sun工程）测试已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:20--17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis的增删改基本操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,6 +784,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>mybatis的增删改基本操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30--21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂练习跟进，理解，写于star中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,6 +800,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t>课堂练习跟进，理解，写于star中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月23日23:50:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven基本操作命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂跟进学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30--17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00--23:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -808,6 +832,28 @@
         <v>55</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,38 @@
   </si>
   <si>
     <t>22:00--23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月24日23:01:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star项目构建（base，dao）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star项目构建（base，dao）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00--24:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,6 +886,36 @@
         <v>62</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,30 @@
   </si>
   <si>
     <t>23:00--24:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月25日23:23:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务实体domain Entity ER建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30--21:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star项目构建（base，dao）Entity and Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -916,6 +940,28 @@
         <v>70</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,14 @@
   </si>
   <si>
     <t>star项目构建（base，dao）Entity and Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleDaoTest 空指针异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:30--23:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,6 +970,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,22 @@
   </si>
   <si>
     <t>23:30--23:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月26日23:20:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从excel读出student至List并存入T_STUDENT中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00--19:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,6 +994,20 @@
         <v>78</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,30 @@
   </si>
   <si>
     <t>17:00--19:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月27日23:58:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service的理解完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poi的详细学习，service的理解完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00--18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00--00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,6 +1032,28 @@
         <v>82</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,30 @@
   </si>
   <si>
     <t>23:00--00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月28日23:59:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00--15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00--21:30 &amp; 23:00--00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate_CR操作练习，C失败R成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base,dao,service的完善与Hibernate的理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,6 +1078,28 @@
         <v>88</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,30 @@
   </si>
   <si>
     <t>base,dao,service的完善与Hibernate的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月29日22:52:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解事务回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30--23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1124,28 @@
         <v>92</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,22 @@
   </si>
   <si>
     <t>22:30--23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月5日23:00:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习star，事务回滚练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:10--21:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,6 +1162,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,22 @@
   </si>
   <si>
     <t>20:10--21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月6日23:01:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http消息结构学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1176,6 +1192,20 @@
         <v>104</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,22 @@
   </si>
   <si>
     <t>08:30--10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月7日18:24:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物回滚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1222,20 @@
         <v>108</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,30 @@
   </si>
   <si>
     <t>事物回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月8日23:51:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00--16:40 &amp; 19:00--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao service bug修正，未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40--23:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1260,28 @@
         <v>111</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,34 @@
   </si>
   <si>
     <t>22:40--23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月9日23:05:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao service bug修正，完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaEE上机完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互控制 Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30--12:00 &amp; 13:30--15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30--19:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,6 +1310,36 @@
         <v>118</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,22 @@
   </si>
   <si>
     <t>16:30--19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月11日23:44:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star-web的构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00--18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1340,6 +1356,20 @@
         <v>125</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044226Ly/201708044226Ly.xlsx
+++ b/201708044226Ly/201708044226Ly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,22 @@
   </si>
   <si>
     <t>web hibernate的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月13日23:27:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互控制Controller的配置及理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30--10:10 &amp; 16:00--17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1400,6 +1416,20 @@
         <v>132</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
